--- a/compounds.xlsx
+++ b/compounds.xlsx
@@ -1,36 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garciaalom\Documents\GitHub\lipidomics_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\lipidomics_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{243C45B6-7E3F-4D1B-9848-00A67EFB0A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E179AE-4DCD-448A-BCB0-223F21E681C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compounds" sheetId="1" r:id="rId1"/>
     <sheet name="PA" sheetId="5" r:id="rId2"/>
-    <sheet name="MGDG" sheetId="4" r:id="rId3"/>
-    <sheet name="DG" sheetId="3" r:id="rId4"/>
-    <sheet name="TG" sheetId="2" r:id="rId5"/>
+    <sheet name="PC" sheetId="6" r:id="rId3"/>
+    <sheet name="MGDG" sheetId="4" r:id="rId4"/>
+    <sheet name="DG" sheetId="3" r:id="rId5"/>
+    <sheet name="TG" sheetId="2" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG!$A$1:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>class</t>
   </si>
@@ -420,13 +428,52 @@
   </si>
   <si>
     <t>TG 16:1_18:2_18:2</t>
+  </si>
+  <si>
+    <t>FN_name</t>
+  </si>
+  <si>
+    <t>FN_rtime</t>
+  </si>
+  <si>
+    <t>PC 36:5</t>
+  </si>
+  <si>
+    <t>PC 36:4</t>
+  </si>
+  <si>
+    <t>PC 36:3</t>
+  </si>
+  <si>
+    <t>PC 36:2</t>
+  </si>
+  <si>
+    <t>PC 36:1</t>
+  </si>
+  <si>
+    <t>PC 36:6</t>
+  </si>
+  <si>
+    <t>PC 34:2</t>
+  </si>
+  <si>
+    <t>PC 34:1</t>
+  </si>
+  <si>
+    <t>PC 34:3</t>
+  </si>
+  <si>
+    <t>PC 34:4</t>
+  </si>
+  <si>
+    <t>PC 38:3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +614,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,6 +807,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -915,179 +974,69 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1103,7 +1052,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1153,12 +1102,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9818AAB4-137C-40BD-8F71-F1F800B83EC7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{646FB01D-B1C5-445E-91B7-1908E27B0F7F}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1187,12 +1136,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4744AC2C-E442-49E9-96E1-5811DDDC34BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{81CF34B5-82E9-4075-9D74-D7F87196EC6A}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1221,12 +1170,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F62C65AE-E1E3-4487-817E-2FA47FE20B2D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{58DBF023-9B46-4D24-8DD6-95A766876260}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1255,7 +1204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1283,7 +1232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1311,7 +1260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1339,7 +1288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1367,7 +1316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1395,7 +1344,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1423,7 +1372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1451,7 +1400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1479,7 +1428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1507,7 +1456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1535,7 +1484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1563,7 +1512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1591,7 +1540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1619,7 +1568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1647,7 +1596,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1691,7 +1640,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1733,10 +1682,10 @@
                   <c:v>16.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.7</c:v>
+                  <c:v>17.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.11</c:v>
+                  <c:v>15.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,10 +1719,10 @@
                     <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1849,7 +1798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402126408"/>
@@ -1912,7 +1861,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402123456"/>
@@ -1953,7 +1902,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1967,7 +1916,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2017,12 +1966,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96D8EAB2-C4E1-4FE6-A2D7-E736A57EF910}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C30A5FC5-A6B5-4AA6-95D6-3DC61F708791}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2040,7 +1989,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000000-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2051,12 +2000,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3695DAAC-D4A6-4235-AFBB-B25FFE468DF6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9FFA4610-FB9C-4260-8329-0A3830080B28}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2074,7 +2023,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000001-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2085,12 +2034,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3CA8505-175B-4F69-BB83-34CCA45A4803}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{15ECB31F-57F3-429C-BCEE-8028D0ED99EF}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2108,7 +2057,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000002-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2119,12 +2068,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3DDC47B-D10D-4ED9-9958-CFD79233B971}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A6CDCDE7-FB48-493F-A93D-70B0955CECD7}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2142,7 +2091,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000003-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2153,12 +2102,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DE2CFCB-8080-4EC5-97C5-6F11CCAED871}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4BE6156A-15BE-49F0-A3D0-AE840DCA52D8}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2176,7 +2125,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000004-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2187,12 +2136,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BF1E6BE-5BEF-4C25-973A-AB5313E7D002}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{05C9468E-0572-482C-BF56-B56E148D61B7}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2210,7 +2159,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000005-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2221,12 +2170,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D3869BB-37DF-4C84-BFCB-CAC399BDBCF8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8E0342C6-2E38-4067-BE0D-36DB4826E353}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2244,7 +2193,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000006-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2255,7 +2204,143 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:fld id="{281D314D-63F3-4828-9D81-991B0E97EADD}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0C3B-44BF-B389-E630DF7D04CA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B485D5F1-7A60-4BDE-B7BC-BC8BA3C904CE}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0C3B-44BF-B389-E630DF7D04CA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3F789EE1-943B-425B-B4F4-3C30A9FFA396}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0C3B-44BF-B389-E630DF7D04CA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CD560224-D39C-4225-BBF1-FBFCE0F4E307}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-0C3B-44BF-B389-E630DF7D04CA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2272,18 +2357,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{0000000B-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2300,18 +2385,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{0000000C-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="13"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2328,18 +2413,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{0000000D-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="14"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2356,18 +2441,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{0000000E-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="15"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2384,18 +2469,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{0000000F-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="16"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2412,18 +2497,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000010-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="17"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2440,119 +2525,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-9821-4A2F-8012-22AA6CD1657D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-9821-4A2F-8012-22AA6CD1657D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-9821-4A2F-8012-22AA6CD1657D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-9821-4A2F-8012-22AA6CD1657D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-9821-4A2F-8012-22AA6CD1657D}"/>
+                  <c16:uniqueId val="{00000011-0C3B-44BF-B389-E630DF7D04CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2579,7 +2552,967 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PC!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PC!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>PC!$C$2:$C$121</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="120"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-0C3B-44BF-B389-E630DF7D04CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402123456"/>
+        <c:axId val="402126408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402123456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402126408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="402126408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402123456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FC6B142F-2E2E-47F7-A8D6-735492588250}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B026AA0-53F4-43E7-AA65-73154B6113F7}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AC894A22-6320-40B9-94A2-B0442F1915D5}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A13CD14F-F950-4FEC-9D35-B62979F455F8}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D82D4981-C415-4567-9BC4-FC5B4B94D16F}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AD6E564-31DD-41B6-94B8-7020B994B2A8}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85589299-D2CF-4581-AE9E-D4DBFAD92DBE}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9821-4A2F-8012-22AA6CD1657D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2630,13 +3563,13 @@
                   <c:v>14.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16.02</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15.42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,13 +3624,13 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>5</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2774,7 +3707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402126408"/>
@@ -2836,7 +3769,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402123456"/>
@@ -2877,7 +3810,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2888,10 +3821,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2941,12 +3874,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55C305C0-0AA8-460A-BB81-3E8E70DE9AEA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8DBAFB02-13D4-4484-AAAD-0B61CDE9C3F2}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2975,12 +3908,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{479F2357-E6B9-4848-B44C-89CF3D77F155}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C21A2881-CA6B-49C5-A25E-A685BE72BCFA}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3009,12 +3942,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF9F6AD8-0622-4A28-AC31-B225E76BDEC3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8273B249-D698-4467-8D95-D1E9E12ABA2A}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3043,12 +3976,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE84EB3B-BE5C-4484-AB5E-89160AE2B2B4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F485FBBE-A6B5-43B5-B08E-9997E73001C2}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3077,12 +4010,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{184EADF6-095E-4621-9CB4-B85046716768}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F8F7BF5E-8F32-4E93-8FAF-1E46ECDEBCE4}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3111,12 +4044,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{839FCB08-E714-4861-AF4A-9D7EA49369CB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B4FEAC7C-BAF7-4D27-9387-C914D6BFC609}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3145,7 +4078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3173,7 +4106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3201,7 +4134,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3229,7 +4162,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3257,7 +4190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3285,7 +4218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3313,7 +4246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3341,7 +4274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3369,7 +4302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3397,7 +4330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3425,7 +4358,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3453,7 +4386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3497,7 +4430,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3536,19 +4469,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>18.63</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.59</c:v>
+                  <c:v>18.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.07</c:v>
+                  <c:v>17.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17.07</c:v>
@@ -3563,7 +4496,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34</c:v>
@@ -3575,7 +4508,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36</c:v>
@@ -3597,13 +4530,13 @@
                     <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>5</c:v>
@@ -3682,7 +4615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402126408"/>
@@ -3745,7 +4678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402123456"/>
@@ -3786,7 +4719,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3797,10 +4730,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3850,12 +4783,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADBD51D8-00EF-4E4E-86E1-E78E6CBA843D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BAAD8D85-B308-47E8-A033-5D857FE97ED6}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3884,12 +4817,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44284023-E6D6-46A9-B74B-768FD3B9B4DC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A56EA785-E074-4CF2-8C0A-1BC317B61760}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3918,12 +4851,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CA9D1B6-0AB1-49B1-BC61-77D11764E1C5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{872FF055-F9A9-4723-978F-B5B9384A528D}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3952,12 +4885,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{216E3058-FF78-4838-B0E6-B1070E766A9E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5AF28E62-3697-4D03-8FAC-D0F04EF22921}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3986,12 +4919,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C791105C-AC37-4FB2-AADD-002FA0CC5581}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6918BE82-414E-4978-A2CC-74567C26F587}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4020,12 +4953,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49436321-2439-4CB9-BC3B-8B697A8A45A2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{20711F97-8A0E-489C-AB4C-F982A0EEB512}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4054,12 +4987,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0246248D-DA18-4F9C-B127-2B838F38B5E6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3F68F21E-371C-4A12-96BD-D91D8CE0FDF8}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4088,12 +5021,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7F9A560-587D-4C9A-92C4-6874322412A9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{490644D1-A2D3-4A49-B27B-F3CA95180FDA}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4122,12 +5055,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FFDDEEF-63F7-4C9D-A019-CFDCF0856FCB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2098BE14-9087-4CEF-B2C1-0FB12A5314DE}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4156,12 +5089,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B150EBE6-A858-45E4-80EB-F862CB90AD39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D27AC21E-45FA-4BD4-830F-744A82B1267D}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4190,12 +5123,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CED0EBCD-8E47-4AD2-A2C4-F1D5C45FD0F4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5ABF5D12-4B27-4378-B4C6-6ED6F5D57E26}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4224,12 +5157,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{857DECFC-329E-4DEB-A2C9-324B3F34172E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{100543E2-6A7B-4D06-A418-4487CD921974}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4258,12 +5191,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54FA0A2D-F567-4F3F-A709-61D3C6CF2331}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1D11FFB4-9DBB-49B1-9169-DB65624EE9CC}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4292,7 +5225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4320,7 +5253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4348,7 +5281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4376,7 +5309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4404,7 +5337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="it-IT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4448,7 +5381,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4496,34 +5429,34 @@
                   <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.83</c:v>
+                  <c:v>21.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.96</c:v>
+                  <c:v>21.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.23</c:v>
+                  <c:v>20.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.26</c:v>
+                  <c:v>22.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.57</c:v>
+                  <c:v>21.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.51</c:v>
+                  <c:v>21.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>20.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20.7</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.08</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.9</c:v>
+                  <c:v>21.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,10 +5477,10 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>52</c:v>
@@ -4559,10 +5492,10 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>54</c:v>
@@ -4571,7 +5504,7 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4596,28 +5529,28 @@
                     <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>6</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>5</c:v>
@@ -4696,7 +5629,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402126408"/>
@@ -4759,7 +5692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402123456"/>
@@ -4800,7 +5733,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4971,6 +5904,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6520,6 +7493,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7098,7 +8587,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A878525-99FD-479E-9D4B-BE846FF2CE34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E49604-4C55-4DBD-AB2E-B63A50241039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7141,7 +8630,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7CBB17-A119-4297-A41D-A4717FAA8828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A878525-99FD-479E-9D4B-BE846FF2CE34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7184,6 +8673,49 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7CBB17-A119-4297-A41D-A4717FAA8828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>303334</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C57A26F-1F94-4972-9C59-6F199A3A233A}"/>
             </a:ext>
           </a:extLst>
@@ -7207,1364 +8739,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1308</v>
-          </cell>
-          <cell r="B2">
-            <v>36</v>
-          </cell>
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1379</v>
-          </cell>
-          <cell r="B3">
-            <v>38</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1324</v>
-          </cell>
-          <cell r="B4">
-            <v>38</v>
-          </cell>
-          <cell r="C4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1282</v>
-          </cell>
-          <cell r="B5">
-            <v>38</v>
-          </cell>
-          <cell r="C5">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1368</v>
-          </cell>
-          <cell r="B6">
-            <v>39</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1401</v>
-          </cell>
-          <cell r="B7">
-            <v>40</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1360</v>
-          </cell>
-          <cell r="B8">
-            <v>40</v>
-          </cell>
-          <cell r="C8">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1328</v>
-          </cell>
-          <cell r="B9">
-            <v>40</v>
-          </cell>
-          <cell r="C9">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1284</v>
-          </cell>
-          <cell r="B10">
-            <v>40</v>
-          </cell>
-          <cell r="C10">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1223</v>
-          </cell>
-          <cell r="B11">
-            <v>40</v>
-          </cell>
-          <cell r="C11">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1347</v>
-          </cell>
-          <cell r="B12">
-            <v>41</v>
-          </cell>
-          <cell r="C12">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1385</v>
-          </cell>
-          <cell r="B13">
-            <v>42</v>
-          </cell>
-          <cell r="C13">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1363</v>
-          </cell>
-          <cell r="B14">
-            <v>42</v>
-          </cell>
-          <cell r="C14">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1334</v>
-          </cell>
-          <cell r="B15">
-            <v>42</v>
-          </cell>
-          <cell r="C15">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>1300</v>
-          </cell>
-          <cell r="B16">
-            <v>42</v>
-          </cell>
-          <cell r="C16">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1396</v>
-          </cell>
-          <cell r="B17">
-            <v>43</v>
-          </cell>
-          <cell r="C17">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>1434</v>
-          </cell>
-          <cell r="B18">
-            <v>44</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>1420</v>
-          </cell>
-          <cell r="B19">
-            <v>44</v>
-          </cell>
-          <cell r="C19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1406</v>
-          </cell>
-          <cell r="B20">
-            <v>44</v>
-          </cell>
-          <cell r="C20">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1388</v>
-          </cell>
-          <cell r="B21">
-            <v>44</v>
-          </cell>
-          <cell r="C21">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1368</v>
-          </cell>
-          <cell r="B22">
-            <v>44</v>
-          </cell>
-          <cell r="C22">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1344</v>
-          </cell>
-          <cell r="B23">
-            <v>44</v>
-          </cell>
-          <cell r="C23">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1415</v>
-          </cell>
-          <cell r="B24">
-            <v>45</v>
-          </cell>
-          <cell r="C24">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1399</v>
-          </cell>
-          <cell r="B25">
-            <v>45</v>
-          </cell>
-          <cell r="C25">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1380</v>
-          </cell>
-          <cell r="B26">
-            <v>45</v>
-          </cell>
-          <cell r="C26">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1446</v>
-          </cell>
-          <cell r="B27">
-            <v>46</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1434</v>
-          </cell>
-          <cell r="B28">
-            <v>46</v>
-          </cell>
-          <cell r="C28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1392</v>
-          </cell>
-          <cell r="B29">
-            <v>46</v>
-          </cell>
-          <cell r="C29">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1374</v>
-          </cell>
-          <cell r="B30">
-            <v>46</v>
-          </cell>
-          <cell r="C30">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1442</v>
-          </cell>
-          <cell r="B31">
-            <v>47</v>
-          </cell>
-          <cell r="C31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>1430</v>
-          </cell>
-          <cell r="B32">
-            <v>47</v>
-          </cell>
-          <cell r="C32">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>1417</v>
-          </cell>
-          <cell r="B33">
-            <v>47</v>
-          </cell>
-          <cell r="C33">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>1402</v>
-          </cell>
-          <cell r="B34">
-            <v>47</v>
-          </cell>
-          <cell r="C34">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>1447</v>
-          </cell>
-          <cell r="B35">
-            <v>48</v>
-          </cell>
-          <cell r="C35">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>1435</v>
-          </cell>
-          <cell r="B36">
-            <v>48</v>
-          </cell>
-          <cell r="C36">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>1423</v>
-          </cell>
-          <cell r="B37">
-            <v>48</v>
-          </cell>
-          <cell r="C37">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>1411</v>
-          </cell>
-          <cell r="B38">
-            <v>48</v>
-          </cell>
-          <cell r="C38">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>1396</v>
-          </cell>
-          <cell r="B39">
-            <v>48</v>
-          </cell>
-          <cell r="C39">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>1466</v>
-          </cell>
-          <cell r="B40">
-            <v>49</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>1454</v>
-          </cell>
-          <cell r="B41">
-            <v>49</v>
-          </cell>
-          <cell r="C41">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>1444</v>
-          </cell>
-          <cell r="B42">
-            <v>49</v>
-          </cell>
-          <cell r="C42">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>1432</v>
-          </cell>
-          <cell r="B43">
-            <v>49</v>
-          </cell>
-          <cell r="C43">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>1420</v>
-          </cell>
-          <cell r="B44">
-            <v>49</v>
-          </cell>
-          <cell r="C44">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>1406</v>
-          </cell>
-          <cell r="B45">
-            <v>49</v>
-          </cell>
-          <cell r="C45">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>1460</v>
-          </cell>
-          <cell r="B46">
-            <v>50</v>
-          </cell>
-          <cell r="C46">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>1449</v>
-          </cell>
-          <cell r="B47">
-            <v>50</v>
-          </cell>
-          <cell r="C47">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>1437</v>
-          </cell>
-          <cell r="B48">
-            <v>50</v>
-          </cell>
-          <cell r="C48">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>1414</v>
-          </cell>
-          <cell r="B49">
-            <v>50</v>
-          </cell>
-          <cell r="C49">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>1403</v>
-          </cell>
-          <cell r="B50">
-            <v>50</v>
-          </cell>
-          <cell r="C50">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>1478</v>
-          </cell>
-          <cell r="B51">
-            <v>51</v>
-          </cell>
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>1444</v>
-          </cell>
-          <cell r="B52">
-            <v>51</v>
-          </cell>
-          <cell r="C52">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>1432</v>
-          </cell>
-          <cell r="B53">
-            <v>51</v>
-          </cell>
-          <cell r="C53">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>1422</v>
-          </cell>
-          <cell r="B54">
-            <v>51</v>
-          </cell>
-          <cell r="C54">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>1410</v>
-          </cell>
-          <cell r="B55">
-            <v>51</v>
-          </cell>
-          <cell r="C55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>1472</v>
-          </cell>
-          <cell r="B56">
-            <v>52</v>
-          </cell>
-          <cell r="C56">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>1460</v>
-          </cell>
-          <cell r="B57">
-            <v>52</v>
-          </cell>
-          <cell r="C57">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>1440</v>
-          </cell>
-          <cell r="B58">
-            <v>52</v>
-          </cell>
-          <cell r="C58">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>1428</v>
-          </cell>
-          <cell r="B59">
-            <v>52</v>
-          </cell>
-          <cell r="C59">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>1416</v>
-          </cell>
-          <cell r="B60">
-            <v>52</v>
-          </cell>
-          <cell r="C60">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>1405</v>
-          </cell>
-          <cell r="B61">
-            <v>52</v>
-          </cell>
-          <cell r="C61">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>1410</v>
-          </cell>
-          <cell r="B62">
-            <v>52</v>
-          </cell>
-          <cell r="C62">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>1396</v>
-          </cell>
-          <cell r="B63">
-            <v>52</v>
-          </cell>
-          <cell r="C63">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>1456</v>
-          </cell>
-          <cell r="B64">
-            <v>53</v>
-          </cell>
-          <cell r="C64">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>1445</v>
-          </cell>
-          <cell r="B65">
-            <v>53</v>
-          </cell>
-          <cell r="C65">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>1434</v>
-          </cell>
-          <cell r="B66">
-            <v>53</v>
-          </cell>
-          <cell r="C66">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>1424</v>
-          </cell>
-          <cell r="B67">
-            <v>53</v>
-          </cell>
-          <cell r="C67">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>1412</v>
-          </cell>
-          <cell r="B68">
-            <v>53</v>
-          </cell>
-          <cell r="C68">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>1485</v>
-          </cell>
-          <cell r="B69">
-            <v>54</v>
-          </cell>
-          <cell r="C69">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>1473</v>
-          </cell>
-          <cell r="B70">
-            <v>54</v>
-          </cell>
-          <cell r="C70">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>1452</v>
-          </cell>
-          <cell r="B71">
-            <v>54</v>
-          </cell>
-          <cell r="C71">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>1441</v>
-          </cell>
-          <cell r="B72">
-            <v>54</v>
-          </cell>
-          <cell r="C72">
-            <v>5</v>
-          </cell>
-          <cell r="M72">
-            <v>0</v>
-          </cell>
-          <cell r="N72">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>1430</v>
-          </cell>
-          <cell r="B73">
-            <v>54</v>
-          </cell>
-          <cell r="C73">
-            <v>6</v>
-          </cell>
-          <cell r="M73">
-            <v>90</v>
-          </cell>
-          <cell r="N73">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>1419</v>
-          </cell>
-          <cell r="B74">
-            <v>54</v>
-          </cell>
-          <cell r="C74">
-            <v>7</v>
-          </cell>
-          <cell r="M74">
-            <v>240</v>
-          </cell>
-          <cell r="N74">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>1408</v>
-          </cell>
-          <cell r="B75">
-            <v>54</v>
-          </cell>
-          <cell r="C75">
-            <v>8</v>
-          </cell>
-          <cell r="M75">
-            <v>300</v>
-          </cell>
-          <cell r="N75">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>1479</v>
-          </cell>
-          <cell r="B76">
-            <v>55</v>
-          </cell>
-          <cell r="C76">
-            <v>2</v>
-          </cell>
-          <cell r="M76">
-            <v>480</v>
-          </cell>
-          <cell r="N76">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>1468</v>
-          </cell>
-          <cell r="B77">
-            <v>55</v>
-          </cell>
-          <cell r="C77">
-            <v>3</v>
-          </cell>
-          <cell r="M77">
-            <v>720</v>
-          </cell>
-          <cell r="N77">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>1457</v>
-          </cell>
-          <cell r="B78">
-            <v>55</v>
-          </cell>
-          <cell r="C78">
-            <v>4</v>
-          </cell>
-          <cell r="M78">
-            <v>840</v>
-          </cell>
-          <cell r="N78">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>1446</v>
-          </cell>
-          <cell r="B79">
-            <v>55</v>
-          </cell>
-          <cell r="C79">
-            <v>5</v>
-          </cell>
-          <cell r="M79">
-            <v>1080</v>
-          </cell>
-          <cell r="N79">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>1436</v>
-          </cell>
-          <cell r="B80">
-            <v>55</v>
-          </cell>
-          <cell r="C80">
-            <v>6</v>
-          </cell>
-          <cell r="M80">
-            <v>1260</v>
-          </cell>
-          <cell r="N80">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>1432</v>
-          </cell>
-          <cell r="B81">
-            <v>55</v>
-          </cell>
-          <cell r="C81">
-            <v>7</v>
-          </cell>
-          <cell r="M81">
-            <v>1500</v>
-          </cell>
-          <cell r="N81">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>1421</v>
-          </cell>
-          <cell r="B82">
-            <v>55</v>
-          </cell>
-          <cell r="C82">
-            <v>8</v>
-          </cell>
-          <cell r="M82">
-            <v>1506</v>
-          </cell>
-          <cell r="N82">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>1475</v>
-          </cell>
-          <cell r="B83">
-            <v>56</v>
-          </cell>
-          <cell r="C83">
-            <v>3</v>
-          </cell>
-          <cell r="M83">
-            <v>1800</v>
-          </cell>
-          <cell r="N83">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>1464</v>
-          </cell>
-          <cell r="B84">
-            <v>56</v>
-          </cell>
-          <cell r="C84">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>1456</v>
-          </cell>
-          <cell r="B85">
-            <v>56</v>
-          </cell>
-          <cell r="C85">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>1436</v>
-          </cell>
-          <cell r="B86">
-            <v>56</v>
-          </cell>
-          <cell r="C86">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>1426</v>
-          </cell>
-          <cell r="B87">
-            <v>56</v>
-          </cell>
-          <cell r="C87">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>1415</v>
-          </cell>
-          <cell r="B88">
-            <v>56</v>
-          </cell>
-          <cell r="C88">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>1493</v>
-          </cell>
-          <cell r="B89">
-            <v>57</v>
-          </cell>
-          <cell r="C89">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>1469</v>
-          </cell>
-          <cell r="B90">
-            <v>57</v>
-          </cell>
-          <cell r="C90">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>1458</v>
-          </cell>
-          <cell r="B91">
-            <v>57</v>
-          </cell>
-          <cell r="C91">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>1454</v>
-          </cell>
-          <cell r="B92">
-            <v>57</v>
-          </cell>
-          <cell r="C92">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>1444</v>
-          </cell>
-          <cell r="B93">
-            <v>57</v>
-          </cell>
-          <cell r="C93">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>1498</v>
-          </cell>
-          <cell r="B94">
-            <v>58</v>
-          </cell>
-          <cell r="C94">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>1485</v>
-          </cell>
-          <cell r="B95">
-            <v>58</v>
-          </cell>
-          <cell r="C95">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>1476</v>
-          </cell>
-          <cell r="B96">
-            <v>58</v>
-          </cell>
-          <cell r="C96">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>1468</v>
-          </cell>
-          <cell r="B97">
-            <v>58</v>
-          </cell>
-          <cell r="C97">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>1457</v>
-          </cell>
-          <cell r="B98">
-            <v>58</v>
-          </cell>
-          <cell r="C98">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>1446</v>
-          </cell>
-          <cell r="B99">
-            <v>58</v>
-          </cell>
-          <cell r="C99">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>1436</v>
-          </cell>
-          <cell r="B100">
-            <v>58</v>
-          </cell>
-          <cell r="C100">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>1432</v>
-          </cell>
-          <cell r="B101">
-            <v>58</v>
-          </cell>
-          <cell r="C101">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>1421</v>
-          </cell>
-          <cell r="B102">
-            <v>58</v>
-          </cell>
-          <cell r="C102">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>1410</v>
-          </cell>
-          <cell r="B103">
-            <v>58</v>
-          </cell>
-          <cell r="C103">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>1505</v>
-          </cell>
-          <cell r="B104">
-            <v>59</v>
-          </cell>
-          <cell r="C104">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>1493</v>
-          </cell>
-          <cell r="B105">
-            <v>59</v>
-          </cell>
-          <cell r="C105">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>1481</v>
-          </cell>
-          <cell r="B106">
-            <v>59</v>
-          </cell>
-          <cell r="C106">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>1470</v>
-          </cell>
-          <cell r="B107">
-            <v>59</v>
-          </cell>
-          <cell r="C107">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>1512</v>
-          </cell>
-          <cell r="B108">
-            <v>60</v>
-          </cell>
-          <cell r="C108">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>1497</v>
-          </cell>
-          <cell r="B109">
-            <v>60</v>
-          </cell>
-          <cell r="C109">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>1486</v>
-          </cell>
-          <cell r="B110">
-            <v>60</v>
-          </cell>
-          <cell r="C110">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>1475</v>
-          </cell>
-          <cell r="B111">
-            <v>60</v>
-          </cell>
-          <cell r="C111">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>1457</v>
-          </cell>
-          <cell r="B112">
-            <v>60</v>
-          </cell>
-          <cell r="C112">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>1444</v>
-          </cell>
-          <cell r="B113">
-            <v>60</v>
-          </cell>
-          <cell r="C113">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>1417</v>
-          </cell>
-          <cell r="B114">
-            <v>60</v>
-          </cell>
-          <cell r="C114">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>1493</v>
-          </cell>
-          <cell r="B115">
-            <v>61</v>
-          </cell>
-          <cell r="C115">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>1481</v>
-          </cell>
-          <cell r="B116">
-            <v>61</v>
-          </cell>
-          <cell r="C116">
-            <v>5</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8859,20 +9035,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="9" max="10" width="9.140625" style="6"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8885,7 +9065,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -8897,14 +9077,20 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -8917,8 +9103,8 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <f>AVERAGE(I2:J2)</f>
+      <c r="E2" s="6">
+        <f>AVERAGE(I2:J2,L2)</f>
         <v>10.08</v>
       </c>
       <c r="F2" t="b">
@@ -8927,11 +9113,11 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>10.08</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8944,8 +9130,8 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E68" si="0">AVERAGE(I3:J3)</f>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E73" si="0">AVERAGE(I3:J3,L3)</f>
         <v>8.2899999999999991</v>
       </c>
       <c r="F3" t="b">
@@ -8954,11 +9140,11 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8971,7 +9157,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>12.18</v>
       </c>
@@ -8981,11 +9167,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>12.18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8998,7 +9184,7 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>10.55</v>
       </c>
@@ -9008,11 +9194,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>10.55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9025,7 +9211,7 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>13.86</v>
       </c>
@@ -9035,11 +9221,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>13.86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9052,7 +9238,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>12.49</v>
       </c>
@@ -9062,11 +9248,11 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>12.49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9079,7 +9265,7 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>11.16</v>
       </c>
@@ -9089,11 +9275,11 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>11.16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9106,7 +9292,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>9.91</v>
       </c>
@@ -9116,11 +9302,11 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>9.91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9133,7 +9319,7 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
@@ -9143,11 +9329,11 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>15.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9160,7 +9346,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -9170,11 +9356,11 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9187,7 +9373,7 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>16.420000000000002</v>
       </c>
@@ -9197,11 +9383,11 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -9214,7 +9400,7 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
@@ -9224,11 +9410,11 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>15.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -9241,7 +9427,7 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>10.71</v>
       </c>
@@ -9251,11 +9437,11 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>10.71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -9268,7 +9454,7 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>17.32</v>
       </c>
       <c r="F15" t="b">
@@ -9278,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -9291,7 +9477,7 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -9301,7 +9487,7 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>3.25</v>
       </c>
     </row>
@@ -9318,7 +9504,7 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>17.48</v>
       </c>
@@ -9328,7 +9514,7 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>17.48</v>
       </c>
     </row>
@@ -9345,7 +9531,7 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>17.190000000000001</v>
       </c>
@@ -9355,7 +9541,7 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>17.190000000000001</v>
       </c>
     </row>
@@ -9372,7 +9558,7 @@
       <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>17.28</v>
       </c>
@@ -9382,7 +9568,7 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>17.28</v>
       </c>
     </row>
@@ -9399,7 +9585,7 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -9409,7 +9595,7 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <v>19</v>
       </c>
     </row>
@@ -9426,7 +9612,7 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>15.52</v>
       </c>
@@ -9439,7 +9625,7 @@
       <c r="H21" t="s">
         <v>34</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>15.52</v>
       </c>
     </row>
@@ -9456,7 +9642,7 @@
       <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
@@ -9469,7 +9655,7 @@
       <c r="H22" t="s">
         <v>34</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>16.5</v>
       </c>
     </row>
@@ -9486,7 +9672,7 @@
       <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>17.34</v>
       </c>
@@ -9499,7 +9685,7 @@
       <c r="H23" t="s">
         <v>34</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>17.34</v>
       </c>
     </row>
@@ -9516,7 +9702,7 @@
       <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>18.059999999999999</v>
       </c>
@@ -9529,7 +9715,7 @@
       <c r="H24" t="s">
         <v>34</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>18.059999999999999</v>
       </c>
     </row>
@@ -9546,7 +9732,7 @@
       <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>18.72</v>
       </c>
@@ -9556,7 +9742,7 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>18.72</v>
       </c>
     </row>
@@ -9573,7 +9759,7 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>9.02</v>
       </c>
@@ -9583,7 +9769,7 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>9.02</v>
       </c>
     </row>
@@ -9600,7 +9786,7 @@
       <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
@@ -9610,7 +9796,7 @@
       <c r="G27" t="b">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>7.98</v>
       </c>
     </row>
@@ -9627,7 +9813,7 @@
       <c r="D28" t="s">
         <v>43</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>10.220000000000001</v>
       </c>
@@ -9637,7 +9823,7 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
         <v>10.220000000000001</v>
       </c>
     </row>
@@ -9654,7 +9840,7 @@
       <c r="D29" t="s">
         <v>44</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
@@ -9664,7 +9850,7 @@
       <c r="G29" t="b">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>8.52</v>
       </c>
     </row>
@@ -9681,7 +9867,7 @@
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>6.97</v>
       </c>
@@ -9691,7 +9877,7 @@
       <c r="G30" t="b">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>6.97</v>
       </c>
     </row>
@@ -9708,7 +9894,7 @@
       <c r="D31" t="s">
         <v>46</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>5.54</v>
       </c>
@@ -9718,7 +9904,7 @@
       <c r="G31" t="b">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>5.54</v>
       </c>
     </row>
@@ -9735,7 +9921,7 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>6.73</v>
       </c>
@@ -9745,11 +9931,11 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
         <v>6.73</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -9762,7 +9948,7 @@
       <c r="D33" t="s">
         <v>50</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>6.73</v>
       </c>
@@ -9772,11 +9958,11 @@
       <c r="G33" t="b">
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
         <v>6.73</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -9789,7 +9975,7 @@
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
@@ -9799,11 +9985,11 @@
       <c r="G34" t="b">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="6">
         <v>6.05</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -9816,7 +10002,7 @@
       <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>9.08</v>
       </c>
@@ -9826,11 +10012,11 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="6">
         <v>9.08</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -9843,7 +10029,7 @@
       <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>7.32</v>
       </c>
@@ -9853,11 +10039,11 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="6">
         <v>7.32</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -9870,7 +10056,7 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
@@ -9880,11 +10066,11 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="6">
         <v>5.75</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -9897,7 +10083,7 @@
       <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>6.14</v>
       </c>
@@ -9907,11 +10093,11 @@
       <c r="G38" t="b">
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="6">
         <v>6.14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -9924,7 +10110,7 @@
       <c r="D39" t="s">
         <v>58</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>16.240000000000002</v>
       </c>
@@ -9934,14 +10120,14 @@
       <c r="G39" t="b">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="6">
         <v>16.25</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="6">
         <v>16.23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -9954,7 +10140,7 @@
       <c r="D40" t="s">
         <v>127</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>17.11</v>
       </c>
@@ -9964,11 +10150,11 @@
       <c r="G40" t="b">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="6">
         <v>17.11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -9981,7 +10167,7 @@
       <c r="D41" t="s">
         <v>59</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>15.7</v>
       </c>
@@ -9991,11 +10177,11 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="6">
         <v>15.7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -10003,41 +10189,44 @@
         <v>34</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42">
+        <v>139</v>
+      </c>
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>16.47</v>
+        <v>17.11</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>16.47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="6">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43">
+        <v>61</v>
+      </c>
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>17.215</v>
+        <v>16.494999999999997</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -10045,856 +10234,898 @@
       <c r="G43" t="b">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="J43">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="6">
+        <v>16.47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="6">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44">
+        <v>140</v>
+      </c>
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>15.955</v>
+        <v>15.78</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>15.94</v>
-      </c>
-      <c r="J44">
-        <v>15.97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" s="6">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
       <c r="B45">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" ref="E45" si="1">AVERAGE(I45:J45,L45)</f>
+        <v>15.13</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" s="6">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
         <v>36</v>
       </c>
-      <c r="C45">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>17.809999999999999</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L46" s="6">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>17.203333333333333</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="J47" s="6">
+        <v>17.28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>135</v>
+      </c>
+      <c r="L47" s="6">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>16.63</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>134</v>
+      </c>
+      <c r="L48" s="6">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>15.976666666666667</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>15.94</v>
+      </c>
+      <c r="J49" s="6">
+        <v>15.97</v>
+      </c>
+      <c r="K49" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" s="6">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D50" t="s">
         <v>64</v>
       </c>
-      <c r="E45">
+      <c r="E50" s="6">
         <f t="shared" si="0"/>
+        <v>15.370000000000001</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
         <v>15.34</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" s="6">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>14.82</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" s="6">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>17.38</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>142</v>
+      </c>
+      <c r="L52" s="6">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>65</v>
       </c>
-      <c r="B46">
+      <c r="B53">
         <v>34</v>
       </c>
-      <c r="C46">
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D53" t="s">
         <v>66</v>
       </c>
-      <c r="E46">
+      <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
-      <c r="F46" t="b">
+      <c r="F53" t="b">
         <v>1</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46">
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
         <v>16.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>65</v>
       </c>
-      <c r="B47">
+      <c r="B54">
         <v>34</v>
       </c>
-      <c r="C47">
+      <c r="C54">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D54" t="s">
         <v>67</v>
       </c>
-      <c r="E47">
+      <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>16.14</v>
       </c>
-      <c r="F47" t="b">
+      <c r="F54" t="b">
         <v>1</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
         <v>16.14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="B48">
+      <c r="B55">
         <v>36</v>
       </c>
-      <c r="C48">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D55" t="s">
         <v>68</v>
       </c>
-      <c r="E48">
+      <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>17.37</v>
       </c>
-      <c r="F48" t="b">
+      <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
         <v>17.37</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B49">
+      <c r="B56">
         <v>36</v>
       </c>
-      <c r="C49">
+      <c r="C56">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D56" t="s">
         <v>69</v>
       </c>
-      <c r="E49">
+      <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>16.79</v>
       </c>
-      <c r="F49" t="b">
+      <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
         <v>16.79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="B50">
+      <c r="B57">
         <v>36</v>
       </c>
-      <c r="C50">
+      <c r="C57">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D57" t="s">
         <v>70</v>
       </c>
-      <c r="E50">
+      <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>16.190000000000001</v>
       </c>
-      <c r="F50" t="b">
+      <c r="F57" t="b">
         <v>1</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
         <v>16.190000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
+      <c r="B58">
         <v>36</v>
       </c>
-      <c r="C51">
+      <c r="C58">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D58" t="s">
         <v>71</v>
       </c>
-      <c r="E51">
+      <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>15.56</v>
       </c>
-      <c r="F51" t="b">
+      <c r="F58" t="b">
         <v>1</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
         <v>15.56</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="B52">
+      <c r="B59">
         <v>34</v>
       </c>
-      <c r="C52">
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D59" t="s">
         <v>73</v>
       </c>
-      <c r="E52">
+      <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>15.84</v>
       </c>
-      <c r="F52" t="b">
+      <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52">
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
         <v>15.84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B53">
+      <c r="B60">
         <v>34</v>
       </c>
-      <c r="C53">
+      <c r="C60">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D60" t="s">
         <v>74</v>
       </c>
-      <c r="E53">
+      <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
-      <c r="F53" t="b">
+      <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
         <v>15.25</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>72</v>
       </c>
-      <c r="B54">
+      <c r="B61">
         <v>36</v>
       </c>
-      <c r="C54">
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D61" t="s">
         <v>75</v>
       </c>
-      <c r="E54">
+      <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
-      <c r="F54" t="b">
+      <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54">
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
         <v>15.95</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>72</v>
       </c>
-      <c r="B55">
+      <c r="B62">
         <v>36</v>
       </c>
-      <c r="C55">
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D62" t="s">
         <v>76</v>
       </c>
-      <c r="E55">
+      <c r="E62" s="6">
         <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
-      <c r="F55" t="b">
+      <c r="F62" t="b">
         <v>1</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
         <v>15.3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B56">
+      <c r="B63">
         <v>34</v>
       </c>
-      <c r="C56">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D63" t="s">
         <v>78</v>
       </c>
-      <c r="E56">
+      <c r="E63" s="6">
         <f t="shared" si="0"/>
         <v>15.58</v>
       </c>
-      <c r="F56" t="b">
+      <c r="F63" t="b">
         <v>1</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56">
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
         <v>15.58</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>77</v>
       </c>
-      <c r="B57">
+      <c r="B64">
         <v>36</v>
       </c>
-      <c r="C57">
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D64" t="s">
         <v>79</v>
       </c>
-      <c r="E57">
+      <c r="E64" s="6">
         <f t="shared" si="0"/>
         <v>16.440000000000001</v>
       </c>
-      <c r="F57" t="b">
+      <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57">
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>77</v>
       </c>
-      <c r="B58">
+      <c r="B65">
         <v>36</v>
       </c>
-      <c r="C58">
+      <c r="C65">
         <v>3</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D65" t="s">
         <v>80</v>
       </c>
-      <c r="E58">
+      <c r="E65" s="6">
         <f t="shared" si="0"/>
         <v>15.72</v>
       </c>
-      <c r="F58" t="b">
+      <c r="F65" t="b">
         <v>1</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
         <v>15.72</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>77</v>
       </c>
-      <c r="B59">
+      <c r="B66">
         <v>36</v>
       </c>
-      <c r="C59">
+      <c r="C66">
         <v>4</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D66" t="s">
         <v>81</v>
       </c>
-      <c r="E59">
+      <c r="E66" s="6">
         <f t="shared" si="0"/>
         <v>15.07</v>
       </c>
-      <c r="F59" t="b">
+      <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
         <v>15.07</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B60">
+      <c r="B67">
         <v>34</v>
       </c>
-      <c r="C60">
+      <c r="C67">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D67" t="s">
         <v>83</v>
       </c>
-      <c r="E60">
+      <c r="E67" s="6">
         <f t="shared" si="0"/>
         <v>15.7</v>
       </c>
-      <c r="F60" t="b">
+      <c r="F67" t="b">
         <v>1</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60">
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
         <v>15.7</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="B61">
+      <c r="B68">
         <v>36</v>
       </c>
-      <c r="C61">
+      <c r="C68">
         <v>3</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D68" t="s">
         <v>84</v>
       </c>
-      <c r="E61">
+      <c r="E68" s="6">
         <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
-      <c r="F61" t="b">
+      <c r="F68" t="b">
         <v>1</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61">
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
         <v>15.8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>82</v>
       </c>
-      <c r="B62">
+      <c r="B69">
         <v>36</v>
       </c>
-      <c r="C62">
+      <c r="C69">
         <v>4</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D69" t="s">
         <v>85</v>
       </c>
-      <c r="E62">
+      <c r="E69" s="6">
         <f t="shared" si="0"/>
         <v>15.15</v>
       </c>
-      <c r="F62" t="b">
+      <c r="F69" t="b">
         <v>1</v>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62">
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
         <v>15.15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>86</v>
       </c>
-      <c r="B63">
+      <c r="B70">
         <v>34</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
         <v>87</v>
       </c>
-      <c r="E63">
+      <c r="E70" s="6">
         <f t="shared" si="0"/>
         <v>18.27</v>
       </c>
-      <c r="F63" t="b">
+      <c r="F70" t="b">
         <v>1</v>
       </c>
-      <c r="G63" t="b">
+      <c r="G70" t="b">
         <v>1</v>
       </c>
-      <c r="I63">
+      <c r="I70" s="6">
         <v>18.27</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>86</v>
       </c>
-      <c r="B64">
+      <c r="B71">
         <v>34</v>
       </c>
-      <c r="C64">
+      <c r="C71">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D71" t="s">
         <v>88</v>
       </c>
-      <c r="E64">
+      <c r="E71" s="6">
         <f t="shared" si="0"/>
         <v>15.84</v>
       </c>
-      <c r="F64" t="b">
+      <c r="F71" t="b">
         <v>1</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64">
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
         <v>15.84</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>86</v>
       </c>
-      <c r="B65">
+      <c r="B72">
         <v>34</v>
       </c>
-      <c r="C65">
+      <c r="C72">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D72" t="s">
         <v>89</v>
       </c>
-      <c r="E65">
+      <c r="E72" s="6">
         <f t="shared" si="0"/>
         <v>15.22</v>
       </c>
-      <c r="F65" t="b">
+      <c r="F72" t="b">
         <v>1</v>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65">
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
         <v>15.22</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>86</v>
       </c>
-      <c r="B66">
+      <c r="B73">
         <v>34</v>
       </c>
-      <c r="C66">
+      <c r="C73">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D73" t="s">
         <v>90</v>
       </c>
-      <c r="E66">
+      <c r="E73" s="6">
         <f t="shared" si="0"/>
         <v>14.55</v>
       </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67">
-        <v>36</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="0"/>
-        <v>17.559999999999999</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68">
-        <v>36</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="0"/>
-        <v>16.02</v>
-      </c>
-      <c r="F68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>16.02</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69">
-        <v>36</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ref="E69:E92" si="1">AVERAGE(I69:J69)</f>
-        <v>15.42</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>15.42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70">
-        <v>34</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>15.91</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>15.91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71">
-        <v>34</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>15.15</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>15.15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72">
-        <v>34</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>93</v>
-      </c>
-      <c r="B73">
-        <v>34</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>13.83</v>
-      </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>13.83</v>
+      <c r="I73" s="6">
+        <v>14.55</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>36</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>18.38</v>
+        <v>121</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" ref="E74:E103" si="2">AVERAGE(I74:J74,L74)</f>
+        <v>17.559999999999999</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>18.38</v>
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>17.559999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B75">
         <v>36</v>
@@ -10903,11 +11134,11 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>15.37</v>
+        <v>91</v>
+      </c>
+      <c r="E75" s="6">
+        <f t="shared" si="2"/>
+        <v>16.02</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -10915,13 +11146,13 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>15.37</v>
+      <c r="I75" s="6">
+        <v>16.02</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>36</v>
@@ -10930,11 +11161,11 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>14.73</v>
+        <v>92</v>
+      </c>
+      <c r="E76" s="6">
+        <f t="shared" si="2"/>
+        <v>15.42</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -10942,26 +11173,26 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>14.73</v>
+      <c r="I76" s="6">
+        <v>15.42</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>11.11</v>
+        <v>94</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" si="2"/>
+        <v>15.91</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -10969,80 +11200,80 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>11.11</v>
+      <c r="I77" s="6">
+        <v>15.91</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B78">
         <v>34</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>18.07</v>
+        <v>95</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="2"/>
+        <v>15.15</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="J78">
-        <v>18.07</v>
+      <c r="I78" s="6">
+        <v>15.15</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B79">
         <v>34</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>17.559999999999999</v>
+        <v>96</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
-      <c r="J79">
-        <v>17.559999999999999</v>
+      <c r="I79" s="6">
+        <v>14.5</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B80">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>18.63</v>
+        <v>97</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="2"/>
+        <v>13.83</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -11050,107 +11281,107 @@
       <c r="G80" t="b">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>18.63</v>
+      <c r="I80" s="6">
+        <v>13.83</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>36</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>18.13</v>
+        <v>98</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="2"/>
+        <v>18.38</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>18.13</v>
+        <v>1</v>
+      </c>
+      <c r="I81" s="6">
+        <v>18.38</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B82">
         <v>36</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>17.59</v>
+        <v>99</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="2"/>
+        <v>15.37</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
-      <c r="J82">
-        <v>17.59</v>
+      <c r="I82" s="6">
+        <v>15.37</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>36</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>17.07</v>
+        <v>100</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="2"/>
+        <v>14.73</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
-      <c r="J83">
-        <v>17.07</v>
+      <c r="I83" s="6">
+        <v>14.73</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B84">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
-        <v>20.7</v>
+        <v>102</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="2"/>
+        <v>11.11</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -11158,107 +11389,107 @@
       <c r="G84" t="b">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>20.7</v>
+      <c r="I84" s="6">
+        <v>11.11</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
-        <v>21.75</v>
+        <v>125</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="2"/>
+        <v>18.07</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>21.75</v>
+      <c r="J85" s="6">
+        <v>18.07</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B86">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>119</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="2"/>
+        <v>17.559999999999999</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>21.5</v>
+      <c r="J86" s="6">
+        <v>17.559999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B87">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>21.51</v>
+        <v>104</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="2"/>
+        <v>18.63</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
-      <c r="J87">
-        <v>21.51</v>
+      <c r="I87" s="6">
+        <v>18.63</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>21.23</v>
+        <v>124</v>
+      </c>
+      <c r="E88" s="6">
+        <f t="shared" si="2"/>
+        <v>18.13</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -11266,26 +11497,26 @@
       <c r="G88" t="b">
         <v>0</v>
       </c>
-      <c r="J88">
-        <v>21.23</v>
+      <c r="J88" s="6">
+        <v>18.13</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ref="E89" si="2">AVERAGE(I89:J89)</f>
-        <v>20.9</v>
+        <v>120</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="2"/>
+        <v>17.59</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -11293,26 +11524,26 @@
       <c r="G89" t="b">
         <v>0</v>
       </c>
-      <c r="J89">
-        <v>20.9</v>
+      <c r="J89" s="6">
+        <v>17.59</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B90">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>22.08</v>
+        <v>126</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="2"/>
+        <v>17.07</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -11320,8 +11551,8 @@
       <c r="G90" t="b">
         <v>0</v>
       </c>
-      <c r="J90">
-        <v>22.08</v>
+      <c r="J90" s="6">
+        <v>17.07</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -11329,17 +11560,17 @@
         <v>105</v>
       </c>
       <c r="B91">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>21.81</v>
+        <v>106</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="2"/>
+        <v>20.7</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -11347,11 +11578,8 @@
       <c r="G91" t="b">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>21.79</v>
-      </c>
-      <c r="J91">
-        <v>21.83</v>
+      <c r="I91" s="6">
+        <v>20.7</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -11359,29 +11587,26 @@
         <v>105</v>
       </c>
       <c r="B92">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
-        <v>21.57</v>
+        <v>107</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="2"/>
+        <v>21.75</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
-      <c r="H92" t="s">
-        <v>112</v>
-      </c>
-      <c r="J92">
-        <v>21.57</v>
+      <c r="I92" s="6">
+        <v>21.75</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -11389,26 +11614,26 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93">
-        <f>AVERAGE(I93:J93)</f>
-        <v>21.26</v>
+        <v>108</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
-      <c r="J93">
-        <v>21.26</v>
+      <c r="I93" s="6">
+        <v>21.5</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -11416,17 +11641,17 @@
         <v>105</v>
       </c>
       <c r="B94">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94">
-        <f>AVERAGE(I94:J94)</f>
-        <v>20.96</v>
+        <v>122</v>
+      </c>
+      <c r="E94" s="6">
+        <f t="shared" si="2"/>
+        <v>21.51</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -11434,11 +11659,8 @@
       <c r="G94" t="b">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-      <c r="J94">
-        <v>20.96</v>
+      <c r="J94" s="6">
+        <v>21.51</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -11446,17 +11668,17 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95">
-        <f>AVERAGE(I95:J95)</f>
-        <v>20.7</v>
+        <v>113</v>
+      </c>
+      <c r="E95" s="6">
+        <f t="shared" si="2"/>
+        <v>21.23</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -11464,8 +11686,8 @@
       <c r="G95" t="b">
         <v>0</v>
       </c>
-      <c r="J95">
-        <v>20.7</v>
+      <c r="J95" s="6">
+        <v>21.23</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -11473,44 +11695,532 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="6">
+        <f t="shared" si="2"/>
+        <v>20.9</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97">
+        <v>54</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="6">
+        <f t="shared" si="2"/>
+        <v>22.08</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98">
+        <v>54</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="2"/>
+        <v>21.81</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>21.79</v>
+      </c>
+      <c r="J98" s="6">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>54</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="6">
+        <f t="shared" si="2"/>
+        <v>21.57</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>112</v>
+      </c>
+      <c r="J99" s="6">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>54</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="6">
+        <f t="shared" si="2"/>
+        <v>21.26</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>54</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="2"/>
+        <v>20.96</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>112</v>
+      </c>
+      <c r="J101" s="6">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>54</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="2"/>
+        <v>20.7</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>56</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>118</v>
       </c>
-      <c r="E96">
-        <f>AVERAGE(I96:J96)</f>
+      <c r="E103" s="6">
+        <f t="shared" si="2"/>
         <v>21.57</v>
       </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
         <v>21.57</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84:J96">
-    <sortCondition ref="B84:B96"/>
-    <sortCondition ref="C84:C96"/>
-    <sortCondition ref="E84:E96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A91:J103">
+    <sortCondition ref="B91:B103"/>
+    <sortCondition ref="C91:C103"/>
+    <sortCondition ref="E91:E103"/>
   </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>16.240000000000002</v>
+      </c>
+      <c r="B2" s="4">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>17.11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
+    <sortCondition ref="B1:B4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C8F772-4BB3-465A-8BC1-1A44FF367D8D}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>17.11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>16.52</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>15.78</v>
+      </c>
+      <c r="B4" s="3">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>15.13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>17.18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>16.63</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>16.02</v>
+      </c>
+      <c r="B9" s="2">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>14.82</v>
+      </c>
+      <c r="B11" s="3">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>17.38</v>
+      </c>
+      <c r="B12" s="12">
+        <v>38</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+    <sortCondition ref="B1:B11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11527,181 +12237,80 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>16.240000000000002</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4">
+        <v>18.27</v>
+      </c>
+      <c r="B2" s="4">
         <v>34</v>
       </c>
-      <c r="C2" s="2">
-        <v>2</v>
+      <c r="C2" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>15.7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="4">
+        <v>15.84</v>
+      </c>
+      <c r="B3" s="4">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>17.11</v>
+        <v>15.22</v>
       </c>
       <c r="B4" s="4">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>14.55</v>
+      </c>
+      <c r="B5" s="4">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="B6" s="14">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="4">
+        <v>16.02</v>
+      </c>
+      <c r="B7" s="4">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>18.27</v>
-      </c>
-      <c r="B2" s="2">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>15.84</v>
-      </c>
-      <c r="B3" s="3">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>15.22</v>
-      </c>
-      <c r="B4" s="3">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>14.55</v>
-      </c>
-      <c r="B5" s="3">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A8" s="4">
+        <v>15.42</v>
+      </c>
+      <c r="B8" s="4">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>16.02</v>
-      </c>
-      <c r="B6" s="3">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>15.42</v>
-      </c>
-      <c r="B7" s="3">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="B8" s="1">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11718,17 +12327,20 @@
     </row>
     <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11745,85 +12357,85 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>18.63</v>
-      </c>
-      <c r="B2" s="2">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="5">
+        <v>18.07</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>17.559999999999999</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>34</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>17.59</v>
+        <v>18.63</v>
       </c>
       <c r="B4" s="4">
         <v>36</v>
       </c>
       <c r="C4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>18.13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>17.59</v>
+      </c>
+      <c r="B6" s="5">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>18.13</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>17.07</v>
+      </c>
+      <c r="B7" s="5">
         <v>36</v>
       </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>18.07</v>
-      </c>
-      <c r="B6" s="4">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>17.07</v>
-      </c>
-      <c r="B7" s="4">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11837,23 +12449,27 @@
     </row>
     <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition ref="B1:B7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B1" t="s">
@@ -11864,158 +12480,162 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>20.7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>42</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>21.75</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>48</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>21.5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>50</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="15">
+        <v>21.51</v>
+      </c>
+      <c r="B5" s="14">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>21.23</v>
+      </c>
+      <c r="B6" s="14">
+        <v>52</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>20.9</v>
+      </c>
+      <c r="B7" s="14">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>22.08</v>
+      </c>
+      <c r="B8" s="14">
+        <v>54</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>21.83</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B9" s="4">
         <v>54</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>21.57</v>
+      </c>
+      <c r="B10" s="14">
+        <v>54</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>21.26</v>
+      </c>
+      <c r="B11" s="14">
+        <v>54</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>20.96</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B12" s="14">
         <v>54</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C12" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>21.23</v>
-      </c>
-      <c r="B7" s="1">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>21.26</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>20.7</v>
+      </c>
+      <c r="B13" s="14">
         <v>54</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C13" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>21.57</v>
+      </c>
+      <c r="B14" s="14">
+        <v>56</v>
+      </c>
+      <c r="C14" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>21.57</v>
-      </c>
-      <c r="B9" s="1">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>21.57</v>
-      </c>
-      <c r="B10" s="1">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>21.51</v>
-      </c>
-      <c r="B11" s="1">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>22.08</v>
-      </c>
-      <c r="B13" s="1">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>20.9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C6">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
       <sortCondition ref="B1:B6"/>
     </sortState>
   </autoFilter>
